--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.76926396590804</v>
+        <v>0.1051366666666667</v>
       </c>
       <c r="N2">
-        <v>0.76926396590804</v>
+        <v>0.31541</v>
       </c>
       <c r="O2">
-        <v>0.4543818059179091</v>
+        <v>0.05266403705467093</v>
       </c>
       <c r="P2">
-        <v>0.4543818059179091</v>
+        <v>0.06261614837928776</v>
       </c>
       <c r="Q2">
-        <v>31.53352518219869</v>
+        <v>4.365232976153333</v>
       </c>
       <c r="R2">
-        <v>31.53352518219869</v>
+        <v>39.28709678537999</v>
       </c>
       <c r="S2">
-        <v>0.3416826648580428</v>
+        <v>0.03847168091203183</v>
       </c>
       <c r="T2">
-        <v>0.3416826648580428</v>
+        <v>0.04777954190470535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.92372628125652</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N3">
-        <v>0.92372628125652</v>
+        <v>2.764586</v>
       </c>
       <c r="O3">
-        <v>0.545618194082091</v>
+        <v>0.4616031817153055</v>
       </c>
       <c r="P3">
-        <v>0.545618194082091</v>
+        <v>0.5488339849189996</v>
       </c>
       <c r="Q3">
-        <v>37.86521563775329</v>
+        <v>38.26150715770534</v>
       </c>
       <c r="R3">
-        <v>37.86521563775329</v>
+        <v>344.353564419348</v>
       </c>
       <c r="S3">
-        <v>0.4102899282518427</v>
+        <v>0.3372063994352444</v>
       </c>
       <c r="T3">
-        <v>0.4102899282518427</v>
+        <v>0.4187903130406828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.76926396590804</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N4">
-        <v>0.76926396590804</v>
+        <v>0.053408</v>
       </c>
       <c r="O4">
-        <v>0.4543818059179091</v>
+        <v>0.0089175387305915</v>
       </c>
       <c r="P4">
-        <v>0.4543818059179091</v>
+        <v>0.01060271789937225</v>
       </c>
       <c r="Q4">
-        <v>5.184218958618771</v>
+        <v>0.7391597057493333</v>
       </c>
       <c r="R4">
-        <v>5.184218958618771</v>
+        <v>6.652437351744</v>
       </c>
       <c r="S4">
-        <v>0.05617379404153699</v>
+        <v>0.006514363952156862</v>
       </c>
       <c r="T4">
-        <v>0.05617379404153699</v>
+        <v>0.008090452978810132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H5">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I5">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J5">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.92372628125652</v>
+        <v>0.9518975000000001</v>
       </c>
       <c r="N5">
-        <v>0.92372628125652</v>
+        <v>1.903795</v>
       </c>
       <c r="O5">
-        <v>0.545618194082091</v>
+        <v>0.4768152424994321</v>
       </c>
       <c r="P5">
-        <v>0.545618194082091</v>
+        <v>0.3779471488023404</v>
       </c>
       <c r="Q5">
-        <v>6.225170438357609</v>
+        <v>39.522409152385</v>
       </c>
       <c r="R5">
-        <v>6.225170438357609</v>
+        <v>237.13445491431</v>
       </c>
       <c r="S5">
-        <v>0.06745306185349335</v>
+        <v>0.3483189836811847</v>
       </c>
       <c r="T5">
-        <v>0.06745306185349335</v>
+        <v>0.2883943216146239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J6">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.76926396590804</v>
+        <v>0.1051366666666667</v>
       </c>
       <c r="N6">
-        <v>0.76926396590804</v>
+        <v>0.31541</v>
       </c>
       <c r="O6">
-        <v>0.4543818059179091</v>
+        <v>0.05266403705467093</v>
       </c>
       <c r="P6">
-        <v>0.4543818059179091</v>
+        <v>0.06261614837928776</v>
       </c>
       <c r="Q6">
-        <v>0.1340419851951618</v>
+        <v>0.7552891618877777</v>
       </c>
       <c r="R6">
-        <v>0.1340419851951618</v>
+        <v>6.79760245699</v>
       </c>
       <c r="S6">
-        <v>0.001452416830649817</v>
+        <v>0.006656516110640203</v>
       </c>
       <c r="T6">
-        <v>0.001452416830649817</v>
+        <v>0.008266997513701375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.92372628125652</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N7">
-        <v>0.92372628125652</v>
+        <v>2.764586</v>
       </c>
       <c r="O7">
-        <v>0.545618194082091</v>
+        <v>0.4616031817153055</v>
       </c>
       <c r="P7">
-        <v>0.545618194082091</v>
+        <v>0.5488339849189996</v>
       </c>
       <c r="Q7">
-        <v>0.160956589680388</v>
+        <v>6.620151050717111</v>
       </c>
       <c r="R7">
-        <v>0.160956589680388</v>
+        <v>59.581359456454</v>
       </c>
       <c r="S7">
-        <v>0.001744051011445555</v>
+        <v>0.05834472986985307</v>
       </c>
       <c r="T7">
-        <v>0.001744051011445555</v>
+        <v>0.0724606879566711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H8">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J8">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.76926396590804</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N8">
-        <v>0.76926396590804</v>
+        <v>0.053408</v>
       </c>
       <c r="O8">
-        <v>0.4543818059179091</v>
+        <v>0.0089175387305915</v>
       </c>
       <c r="P8">
-        <v>0.4543818059179091</v>
+        <v>0.01060271789937225</v>
       </c>
       <c r="Q8">
-        <v>0.4038072247160701</v>
+        <v>0.1278922150791111</v>
       </c>
       <c r="R8">
-        <v>0.4038072247160701</v>
+        <v>1.151029935712</v>
       </c>
       <c r="S8">
-        <v>0.004375467945074736</v>
+        <v>0.001127139952560388</v>
       </c>
       <c r="T8">
-        <v>0.004375467945074736</v>
+        <v>0.001399840852261384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H9">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J9">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.92372628125652</v>
+        <v>0.9518975000000001</v>
       </c>
       <c r="N9">
-        <v>0.92372628125652</v>
+        <v>1.903795</v>
       </c>
       <c r="O9">
-        <v>0.545618194082091</v>
+        <v>0.4768152424994321</v>
       </c>
       <c r="P9">
-        <v>0.545618194082091</v>
+        <v>0.3779471488023404</v>
       </c>
       <c r="Q9">
-        <v>0.4848886241424204</v>
+        <v>6.838317095000834</v>
       </c>
       <c r="R9">
-        <v>0.4848886241424204</v>
+        <v>41.02990257000501</v>
       </c>
       <c r="S9">
-        <v>0.005254028412588032</v>
+        <v>0.06026747133345297</v>
       </c>
       <c r="T9">
-        <v>0.005254028412588032</v>
+        <v>0.04989907907674808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.08219597134768</v>
+        <v>0.229894</v>
       </c>
       <c r="H10">
-        <v>6.08219597134768</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I10">
-        <v>0.1115745867953259</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J10">
-        <v>0.1115745867953259</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.76926396590804</v>
+        <v>0.1051366666666667</v>
       </c>
       <c r="N10">
-        <v>0.76926396590804</v>
+        <v>0.31541</v>
       </c>
       <c r="O10">
-        <v>0.4543818059179091</v>
+        <v>0.05266403705467093</v>
       </c>
       <c r="P10">
-        <v>0.4543818059179091</v>
+        <v>0.06261614837928776</v>
       </c>
       <c r="Q10">
-        <v>4.67881419434882</v>
+        <v>0.02417028884666666</v>
       </c>
       <c r="R10">
-        <v>4.67881419434882</v>
+        <v>0.21753259962</v>
       </c>
       <c r="S10">
-        <v>0.05069746224260466</v>
+        <v>0.0002130176430766382</v>
       </c>
       <c r="T10">
-        <v>0.05069746224260466</v>
+        <v>0.0002645552562960335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.229894</v>
+      </c>
+      <c r="H11">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J11">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9215286666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.764586</v>
+      </c>
+      <c r="O11">
+        <v>0.4616031817153055</v>
+      </c>
+      <c r="P11">
+        <v>0.5488339849189996</v>
+      </c>
+      <c r="Q11">
+        <v>0.2118539112946666</v>
+      </c>
+      <c r="R11">
+        <v>1.906685201652</v>
+      </c>
+      <c r="S11">
+        <v>0.001867111359191753</v>
+      </c>
+      <c r="T11">
+        <v>0.002318841374028807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.229894</v>
+      </c>
+      <c r="H12">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J12">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01780266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.053408</v>
+      </c>
+      <c r="O12">
+        <v>0.0089175387305915</v>
+      </c>
+      <c r="P12">
+        <v>0.01060271789937225</v>
+      </c>
+      <c r="Q12">
+        <v>0.004092726250666665</v>
+      </c>
+      <c r="R12">
+        <v>0.03683453625599999</v>
+      </c>
+      <c r="S12">
+        <v>3.60700240367683E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.47968267596416E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.229894</v>
+      </c>
+      <c r="H13">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J13">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9518975000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.903795</v>
+      </c>
+      <c r="O13">
+        <v>0.4768152424994321</v>
+      </c>
+      <c r="P13">
+        <v>0.3779471488023404</v>
+      </c>
+      <c r="Q13">
+        <v>0.218835523865</v>
+      </c>
+      <c r="R13">
+        <v>1.31301314319</v>
+      </c>
+      <c r="S13">
+        <v>0.001928641722525071</v>
+      </c>
+      <c r="T13">
+        <v>0.001596838952982173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.893011</v>
+      </c>
+      <c r="I14">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J14">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1051366666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.31541</v>
+      </c>
+      <c r="O14">
+        <v>0.05266403705467093</v>
+      </c>
+      <c r="P14">
+        <v>0.06261614837928776</v>
+      </c>
+      <c r="Q14">
+        <v>0.06634162216777777</v>
+      </c>
+      <c r="R14">
+        <v>0.59707459951</v>
+      </c>
+      <c r="S14">
+        <v>0.0005846821310954178</v>
+      </c>
+      <c r="T14">
+        <v>0.0007261404680362989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.893011</v>
+      </c>
+      <c r="I15">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J15">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9215286666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.764586</v>
+      </c>
+      <c r="O15">
+        <v>0.4616031817153055</v>
+      </c>
+      <c r="P15">
+        <v>0.5488339849189996</v>
+      </c>
+      <c r="Q15">
+        <v>0.5814879676051111</v>
+      </c>
+      <c r="R15">
+        <v>5.233391708446</v>
+      </c>
+      <c r="S15">
+        <v>0.005124771041110164</v>
+      </c>
+      <c r="T15">
+        <v>0.00636466114570432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.893011</v>
+      </c>
+      <c r="I16">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J16">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01780266666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.053408</v>
+      </c>
+      <c r="O16">
+        <v>0.0089175387305915</v>
+      </c>
+      <c r="P16">
+        <v>0.01060271789937225</v>
+      </c>
+      <c r="Q16">
+        <v>0.01123354794311111</v>
+      </c>
+      <c r="R16">
+        <v>0.101101931488</v>
+      </c>
+      <c r="S16">
+        <v>9.900352955690711E-05</v>
+      </c>
+      <c r="T16">
+        <v>0.0001229565014326833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="H11">
-        <v>6.08219597134768</v>
-      </c>
-      <c r="I11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="J11">
-        <v>0.1115745867953259</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.92372628125652</v>
-      </c>
-      <c r="N11">
-        <v>0.92372628125652</v>
-      </c>
-      <c r="O11">
-        <v>0.545618194082091</v>
-      </c>
-      <c r="P11">
-        <v>0.545618194082091</v>
-      </c>
-      <c r="Q11">
-        <v>5.61828426648638</v>
-      </c>
-      <c r="R11">
-        <v>5.61828426648638</v>
-      </c>
-      <c r="S11">
-        <v>0.06087712455272122</v>
-      </c>
-      <c r="T11">
-        <v>0.06087712455272122</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.893011</v>
+      </c>
+      <c r="I17">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J17">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9518975000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.903795</v>
+      </c>
+      <c r="O17">
+        <v>0.4768152424994321</v>
+      </c>
+      <c r="P17">
+        <v>0.3779471488023404</v>
+      </c>
+      <c r="Q17">
+        <v>0.6006508127908333</v>
+      </c>
+      <c r="R17">
+        <v>3.603904876745</v>
+      </c>
+      <c r="S17">
+        <v>0.005293657070648368</v>
+      </c>
+      <c r="T17">
+        <v>0.004382938373371694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.2719705</v>
+      </c>
+      <c r="H18">
+        <v>14.543941</v>
+      </c>
+      <c r="I18">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J18">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1051366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.31541</v>
+      </c>
+      <c r="O18">
+        <v>0.05266403705467093</v>
+      </c>
+      <c r="P18">
+        <v>0.06261614837928776</v>
+      </c>
+      <c r="Q18">
+        <v>0.7645507384683332</v>
+      </c>
+      <c r="R18">
+        <v>4.58730443081</v>
+      </c>
+      <c r="S18">
+        <v>0.006738140257826835</v>
+      </c>
+      <c r="T18">
+        <v>0.005578913236548713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.2719705</v>
+      </c>
+      <c r="H19">
+        <v>14.543941</v>
+      </c>
+      <c r="I19">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J19">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9215286666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.764586</v>
+      </c>
+      <c r="O19">
+        <v>0.4616031817153055</v>
+      </c>
+      <c r="P19">
+        <v>0.5488339849189996</v>
+      </c>
+      <c r="Q19">
+        <v>6.701329278904334</v>
+      </c>
+      <c r="R19">
+        <v>40.207975673426</v>
+      </c>
+      <c r="S19">
+        <v>0.05906017000990602</v>
+      </c>
+      <c r="T19">
+        <v>0.04889948140191263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.2719705</v>
+      </c>
+      <c r="H20">
+        <v>14.543941</v>
+      </c>
+      <c r="I20">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J20">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01780266666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.053408</v>
+      </c>
+      <c r="O20">
+        <v>0.0089175387305915</v>
+      </c>
+      <c r="P20">
+        <v>0.01060271789937225</v>
+      </c>
+      <c r="Q20">
+        <v>0.1294604668213333</v>
+      </c>
+      <c r="R20">
+        <v>0.776762800928</v>
+      </c>
+      <c r="S20">
+        <v>0.001140961272280573</v>
+      </c>
+      <c r="T20">
+        <v>0.0009446707401084104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.2719705</v>
+      </c>
+      <c r="H21">
+        <v>14.543941</v>
+      </c>
+      <c r="I21">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J21">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9518975000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.903795</v>
+      </c>
+      <c r="O21">
+        <v>0.4768152424994321</v>
+      </c>
+      <c r="P21">
+        <v>0.3779471488023404</v>
+      </c>
+      <c r="Q21">
+        <v>6.92217053902375</v>
+      </c>
+      <c r="R21">
+        <v>27.688682156095</v>
+      </c>
+      <c r="S21">
+        <v>0.06100648869162095</v>
+      </c>
+      <c r="T21">
+        <v>0.0336739707846145</v>
       </c>
     </row>
   </sheetData>
